--- a/public/uploads/vip_code_demo.xlsx
+++ b/public/uploads/vip_code_demo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1100" yWindow="700" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>激活码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,49 @@
   </si>
   <si>
     <t>sfds32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员天数</t>
+    <rPh sb="0" eb="2">
+      <t>hui yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅限首次</t>
+    <rPh sb="0" eb="2">
+      <t>jin xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,6 +202,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -202,6 +254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,32 +447,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
